--- a/biology/Zoologie/Athrypsometra/Athrypsometra.xlsx
+++ b/biology/Zoologie/Athrypsometra/Athrypsometra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athrypsometra est un genre de comatules abyssales de la famille des Antedonidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 avril 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 avril 2015) :
 Athrypsometra anomala (AH Clark, 1912) -- Indonésie (&gt;1 000 m de profondeur)
 Athrypsometra gracillima (AH Clark, 1909) -- Birmanie (~1 000 m de profondeur)
 Athrypsometra minima (AH Clark, 1912) -- Mer de Florès (&gt;2 000 m de profondeur)
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Charles G. Messing et Christopher M. White, « A revision of the Zenometridae (new rank) (Echinodermata, Crinoidea, Comatulidina) », Zoologica Scripta, Wiley-Blackwell, vol. 30, no 3,‎ 21 décembre 2001, p. 159-180 (ISSN 0300-3256 et 1463-6409, DOI 10.1046/J.1463-6409.2001.00062.X, lire en ligne)</t>
         </is>
